--- a/format.xlsx
+++ b/format.xlsx
@@ -1,49 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\maharera_companion_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90521621-4DA7-42CF-A19E-AD8684EA5D4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F4D599-C6C0-4968-A302-31CCD66B1D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{0A96BD6F-183D-4F01-BA48-341945C2EEB1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet11" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>RERA DATA</t>
   </si>
   <si>
-    <t>ORGANISATION ADDRESS</t>
+    <t>SL. No.</t>
+  </si>
+  <si>
+    <t>ORGANISATION</t>
+  </si>
+  <si>
+    <t>Members</t>
   </si>
   <si>
     <t>PROJECT</t>
   </si>
   <si>
-    <t>SL. No.</t>
+    <t>Organisation Name</t>
+  </si>
+  <si>
+    <t>Block Number</t>
+  </si>
+  <si>
+    <t>Building Name</t>
+  </si>
+  <si>
+    <t>Street Name</t>
+  </si>
+  <si>
+    <t>Locality</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Proposed DOC</t>
+  </si>
+  <si>
+    <t>Total FSI</t>
+  </si>
+  <si>
+    <t>District2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,12 +93,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -78,45 +131,233 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -136,7 +377,7 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -146,6 +387,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{52A7CDDA-F7A3-43B5-8CDC-59E8CE3B7986}" name="Table4" displayName="Table4" ref="A5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A5:L6" xr:uid="{52A7CDDA-F7A3-43B5-8CDC-59E8CE3B7986}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{BD32B1AA-EFE4-4347-B79B-436FF3BD55C8}" name="SL. No." dataDxfId="11">
+      <calculatedColumnFormula>ROW()-5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{AC8B001C-A5EE-4A17-91C1-BA76CC0D09D3}" name="Organisation Name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{A891F22F-867A-48D7-A7E2-8C92938D9639}" name="Block Number" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F9E49ECC-D889-4562-BC82-2BFFCBD80448}" name="Building Name" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{B4871745-93CA-4CF7-83A2-C40B8D564E88}" name="Street Name" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{C65F799D-D3C3-42F7-923C-BA787B6F66A6}" name="Locality" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{CDA64E8C-F20E-4F70-8AF2-1A2CD85AFAFA}" name="District" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{29CCEDE0-C9D4-433D-95B2-7BB767D9685E}" name="Members" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{9082B290-760B-4D4F-BE2A-D65A606A668C}" name="Project Name" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{DB2BE56E-23C1-4042-846B-02F097D41B0E}" name="Proposed DOC" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{310C96E4-4EE9-4108-93B1-EFCB0B4063DE}" name="District2" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{1B90107E-6EE8-4FCD-A37B-4C35A0466D3B}" name="Total FSI" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -183,20 +447,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -224,31 +488,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -276,23 +523,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -304,212 +534,292 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E9211B-0F45-46CD-B6FE-2DF17BF8115C}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="14.28515625" style="1"/>
+    <col min="1" max="1" width="8.19921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.06640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.46484375" style="7" customWidth="1"/>
+    <col min="5" max="9" width="13.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="7" customWidth="1"/>
+    <col min="11" max="12" width="13.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="13.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.06640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="5"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5"/>
+      <c r="B2" s="17"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:15" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="I4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" s="10" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="B4:G4"/>
     <mergeCell ref="I4:L4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A1:XFD3 B4:G4 I4:XFD4 A5:XFD1048576">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>